--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H2">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I2">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J2">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N2">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O2">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P2">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q2">
-        <v>14.567199469194</v>
+        <v>0.368604488296</v>
       </c>
       <c r="R2">
-        <v>87.40319681516399</v>
+        <v>1.474417953184</v>
       </c>
       <c r="S2">
-        <v>0.004965926679235177</v>
+        <v>0.0001165411589843519</v>
       </c>
       <c r="T2">
-        <v>0.004513493502238127</v>
+        <v>6.876553690534306E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H3">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I3">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J3">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.160829</v>
       </c>
       <c r="O3">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P3">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q3">
-        <v>3.298998617696223</v>
+        <v>0.08868870533783335</v>
       </c>
       <c r="R3">
-        <v>29.690987559266</v>
+        <v>0.532132232027</v>
       </c>
       <c r="S3">
-        <v>0.001124621467909651</v>
+        <v>2.804058235067601E-05</v>
       </c>
       <c r="T3">
-        <v>0.001533240022183378</v>
+        <v>2.481817218852645E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H4">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I4">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J4">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N4">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O4">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P4">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q4">
-        <v>20.84799296204</v>
+        <v>1.224844932201</v>
       </c>
       <c r="R4">
-        <v>187.63193665836</v>
+        <v>7.349069593206001</v>
       </c>
       <c r="S4">
-        <v>0.00710703554774828</v>
+        <v>0.0003872574873808544</v>
       </c>
       <c r="T4">
-        <v>0.009689296933964494</v>
+        <v>0.0003427540442248501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H5">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I5">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J5">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N5">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O5">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P5">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q5">
-        <v>173.6604405870973</v>
+        <v>4.16522201234775</v>
       </c>
       <c r="R5">
-        <v>1041.962643522584</v>
+        <v>16.660888049391</v>
       </c>
       <c r="S5">
-        <v>0.05920046724581011</v>
+        <v>0.001316912344150122</v>
       </c>
       <c r="T5">
-        <v>0.0538068605323383</v>
+        <v>0.0007770489429825934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H6">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I6">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J6">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N6">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O6">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P6">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q6">
-        <v>6.945346226686667</v>
+        <v>0.1386936798466667</v>
       </c>
       <c r="R6">
-        <v>62.50811604018</v>
+        <v>0.83216207908</v>
       </c>
       <c r="S6">
-        <v>0.002367653452989823</v>
+        <v>4.385058431560773E-05</v>
       </c>
       <c r="T6">
-        <v>0.00322791369040121</v>
+        <v>3.881129637402174E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H7">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I7">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J7">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N7">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O7">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P7">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q7">
-        <v>19.79286040056467</v>
+        <v>0.1827068293025</v>
       </c>
       <c r="R7">
-        <v>178.135743605082</v>
+        <v>1.096240975815</v>
       </c>
       <c r="S7">
-        <v>0.006747343147830177</v>
+        <v>5.776615944017134E-05</v>
       </c>
       <c r="T7">
-        <v>0.009198914348386881</v>
+        <v>5.112770033542055E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H8">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I8">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J8">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N8">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O8">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P8">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q8">
-        <v>71.61243161071802</v>
+        <v>13.71116753517867</v>
       </c>
       <c r="R8">
-        <v>429.6745896643081</v>
+        <v>82.26700521107199</v>
       </c>
       <c r="S8">
-        <v>0.02441252249292126</v>
+        <v>0.004335040419516461</v>
       </c>
       <c r="T8">
-        <v>0.02218835854056798</v>
+        <v>0.003836859671111207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H9">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I9">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J9">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.160829</v>
       </c>
       <c r="O9">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P9">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q9">
-        <v>16.21789510010023</v>
+        <v>3.298998617696223</v>
       </c>
       <c r="R9">
-        <v>145.961055900902</v>
+        <v>29.690987559266</v>
       </c>
       <c r="S9">
-        <v>0.005528645236782856</v>
+        <v>0.001043039720355638</v>
       </c>
       <c r="T9">
-        <v>0.007537416266154695</v>
+        <v>0.00138476115022454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H10">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I10">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J10">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N10">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O10">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P10">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q10">
-        <v>102.48884649188</v>
+        <v>45.561176283172</v>
       </c>
       <c r="R10">
-        <v>922.3996184269201</v>
+        <v>410.050586548548</v>
       </c>
       <c r="S10">
-        <v>0.03493822530503358</v>
+        <v>0.01440501257398513</v>
       </c>
       <c r="T10">
-        <v>0.04763263628721794</v>
+        <v>0.0191243932437676</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H11">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I11">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J11">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N11">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O11">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P11">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q11">
-        <v>853.7156679518414</v>
+        <v>154.935869328463</v>
       </c>
       <c r="R11">
-        <v>5122.294007711048</v>
+        <v>929.6152159707781</v>
       </c>
       <c r="S11">
-        <v>0.291029818114909</v>
+        <v>0.04898585435912374</v>
       </c>
       <c r="T11">
-        <v>0.2645148182537188</v>
+        <v>0.04335642366776676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H12">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I12">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J12">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N12">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O12">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P12">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q12">
-        <v>34.14335972560668</v>
+        <v>5.159058939404445</v>
       </c>
       <c r="R12">
-        <v>307.29023753046</v>
+        <v>46.43153045464</v>
       </c>
       <c r="S12">
-        <v>0.01163939721829699</v>
+        <v>0.001631132357737219</v>
       </c>
       <c r="T12">
-        <v>0.01586844121191587</v>
+        <v>0.002165525124104108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H13">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I13">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J13">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N13">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O13">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P13">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q13">
-        <v>97.3018090960727</v>
+        <v>6.796238314863333</v>
       </c>
       <c r="R13">
-        <v>875.7162818646542</v>
+        <v>61.16614483377</v>
       </c>
       <c r="S13">
-        <v>0.03316997551587521</v>
+        <v>0.002148757042024946</v>
       </c>
       <c r="T13">
-        <v>0.04522191283642504</v>
+        <v>0.002852734382975372</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H14">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I14">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J14">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N14">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O14">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P14">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q14">
-        <v>2.986899721722</v>
+        <v>45.83585029713067</v>
       </c>
       <c r="R14">
-        <v>11.947598886888</v>
+        <v>275.015101782784</v>
       </c>
       <c r="S14">
-        <v>0.001018227631719256</v>
+        <v>0.01449185586793851</v>
       </c>
       <c r="T14">
-        <v>0.0006169729701918716</v>
+        <v>0.01282645880045835</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H15">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I15">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J15">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.160829</v>
       </c>
       <c r="O15">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P15">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q15">
-        <v>0.6764359940286667</v>
+        <v>11.02841215988356</v>
       </c>
       <c r="R15">
-        <v>4.058615964172</v>
+        <v>99.25570943895201</v>
       </c>
       <c r="S15">
-        <v>0.0002305955620808</v>
+        <v>0.003486837452282584</v>
       </c>
       <c r="T15">
-        <v>0.00020958657634811</v>
+        <v>0.004629197667968501</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H16">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I16">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J16">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N16">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O16">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P16">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q16">
-        <v>4.27473135852</v>
+        <v>152.309075803984</v>
       </c>
       <c r="R16">
-        <v>25.64838815112</v>
+        <v>1370.781682235856</v>
       </c>
       <c r="S16">
-        <v>0.001457246641314251</v>
+        <v>0.04815534477099973</v>
       </c>
       <c r="T16">
-        <v>0.001324480539399184</v>
+        <v>0.06393203375976154</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H17">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I17">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J17">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N17">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O17">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P17">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q17">
-        <v>35.60782721213199</v>
+        <v>517.9440258442361</v>
       </c>
       <c r="R17">
-        <v>142.431308848528</v>
+        <v>3107.664155065417</v>
       </c>
       <c r="S17">
-        <v>0.01213863100565522</v>
+        <v>0.1637576290509956</v>
       </c>
       <c r="T17">
-        <v>0.007355140434538083</v>
+        <v>0.1449386815204453</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H18">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I18">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J18">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N18">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O18">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P18">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q18">
-        <v>1.42409340626</v>
+        <v>17.24651475623111</v>
       </c>
       <c r="R18">
-        <v>8.544560437559999</v>
+        <v>155.21863280608</v>
       </c>
       <c r="S18">
-        <v>0.0004854703510324571</v>
+        <v>0.005452806143038257</v>
       </c>
       <c r="T18">
-        <v>0.0004412403598459349</v>
+        <v>0.007239258447425703</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H19">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I19">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J19">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N19">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O19">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P19">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q19">
-        <v>4.058383998074</v>
+        <v>22.71953582249333</v>
       </c>
       <c r="R19">
-        <v>24.350303988444</v>
+        <v>204.47582240244</v>
       </c>
       <c r="S19">
-        <v>0.001383494295745502</v>
+        <v>0.007183203461737685</v>
       </c>
       <c r="T19">
-        <v>0.001257447585833579</v>
+        <v>0.009536569791015448</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H20">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I20">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J20">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N20">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O20">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P20">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q20">
-        <v>0.267226301982</v>
+        <v>0.9713311940639999</v>
       </c>
       <c r="R20">
-        <v>1.603357811892</v>
+        <v>3.885324776256</v>
       </c>
       <c r="S20">
-        <v>9.109686629966866E-05</v>
+        <v>0.0003071044078632329</v>
       </c>
       <c r="T20">
-        <v>8.279725833187998E-05</v>
+        <v>0.0001812080785600238</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H21">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I21">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J21">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.160829</v>
       </c>
       <c r="O21">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P21">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q21">
-        <v>0.0605180977108889</v>
+        <v>0.233708782153</v>
       </c>
       <c r="R21">
-        <v>0.5446628793980001</v>
+        <v>1.402252692918</v>
       </c>
       <c r="S21">
-        <v>2.063048814802099E-05</v>
+        <v>7.389137463529799E-05</v>
       </c>
       <c r="T21">
-        <v>2.812634384840572E-05</v>
+        <v>6.539981359914699E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H22">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I22">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J22">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N22">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O22">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P22">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q22">
-        <v>0.38244359012</v>
+        <v>3.227660346834</v>
       </c>
       <c r="R22">
-        <v>3.44199231108</v>
+        <v>19.365962081004</v>
       </c>
       <c r="S22">
-        <v>0.0001303741897332908</v>
+        <v>0.001020484800298488</v>
       </c>
       <c r="T22">
-        <v>0.0001777441843879772</v>
+        <v>0.0009032111805970148</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H23">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I23">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J23">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N23">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O23">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P23">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q23">
-        <v>3.185693821025333</v>
+        <v>10.9760195528235</v>
       </c>
       <c r="R23">
-        <v>19.114162926152</v>
+        <v>43.90407821129401</v>
       </c>
       <c r="S23">
-        <v>0.00108599610866588</v>
+        <v>0.003470272555915702</v>
       </c>
       <c r="T23">
-        <v>0.0009870537155563202</v>
+        <v>0.002047647008105197</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H24">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I24">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J24">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N24">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O24">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P24">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q24">
-        <v>0.1274080987266667</v>
+        <v>0.36547980812</v>
       </c>
       <c r="R24">
-        <v>1.14667288854</v>
+        <v>2.19287884872</v>
       </c>
       <c r="S24">
-        <v>4.343314430171598E-05</v>
+        <v>0.0001155532332788081</v>
       </c>
       <c r="T24">
-        <v>5.921408850253853E-05</v>
+        <v>0.0001022739115967499</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H25">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I25">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J25">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N25">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O25">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P25">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q25">
-        <v>0.3630878331606667</v>
+        <v>0.481461426285</v>
       </c>
       <c r="R25">
-        <v>3.267790498446</v>
+        <v>2.88876855771</v>
       </c>
       <c r="S25">
-        <v>0.0001237758541997921</v>
+        <v>0.0001522229772211971</v>
       </c>
       <c r="T25">
-        <v>0.0001687484178937104</v>
+        <v>0.0001347295863002907</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H26">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I26">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J26">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N26">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O26">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P26">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q26">
-        <v>89.27627654803202</v>
+        <v>43.99607040605333</v>
       </c>
       <c r="R26">
-        <v>535.6576592881921</v>
+        <v>263.97642243632</v>
       </c>
       <c r="S26">
-        <v>0.03043408889060676</v>
+        <v>0.01391017526558491</v>
       </c>
       <c r="T26">
-        <v>0.02766131506304222</v>
+        <v>0.01231162465160233</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H27">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I27">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J27">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.160829</v>
       </c>
       <c r="O27">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P27">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q27">
-        <v>20.21818356698311</v>
+        <v>10.58574881250945</v>
       </c>
       <c r="R27">
-        <v>181.963652102848</v>
+        <v>95.271739312585</v>
       </c>
       <c r="S27">
-        <v>0.006892334892048464</v>
+        <v>0.003346881208718222</v>
       </c>
       <c r="T27">
-        <v>0.009396587211181204</v>
+        <v>0.004443388858354605</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H28">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I28">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J28">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N28">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O28">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P28">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q28">
-        <v>127.76863453312</v>
+        <v>146.19562589357</v>
       </c>
       <c r="R28">
-        <v>1149.91771079808</v>
+        <v>1315.76063304213</v>
       </c>
       <c r="S28">
-        <v>0.04355605017555071</v>
+        <v>0.04622246397172878</v>
       </c>
       <c r="T28">
-        <v>0.05938165084249199</v>
+        <v>0.0613659011508013</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H29">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I29">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J29">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N29">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O29">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P29">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q29">
-        <v>1064.292251375659</v>
+        <v>497.1545565254675</v>
       </c>
       <c r="R29">
-        <v>6385.753508253952</v>
+        <v>2982.927339152805</v>
       </c>
       <c r="S29">
-        <v>0.362814918322944</v>
+        <v>0.157184651982053</v>
       </c>
       <c r="T29">
-        <v>0.3297597572700918</v>
+        <v>0.139121067797301</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H30">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I30">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J30">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N30">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O30">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P30">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q30">
-        <v>42.56512391189334</v>
+        <v>16.55426642148889</v>
       </c>
       <c r="R30">
-        <v>383.0861152070401</v>
+        <v>148.9883977934</v>
       </c>
       <c r="S30">
-        <v>0.0145103583489763</v>
+        <v>0.005233938967522309</v>
       </c>
       <c r="T30">
-        <v>0.0197825337606489</v>
+        <v>0.006948685849087338</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.69678833333333</v>
+      </c>
+      <c r="H31">
+        <v>44.090365</v>
+      </c>
+      <c r="I31">
+        <v>0.2327929922191316</v>
+      </c>
+      <c r="J31">
+        <v>0.23334445498805</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.483835</v>
+      </c>
+      <c r="N31">
+        <v>4.451505</v>
+      </c>
+      <c r="O31">
+        <v>0.02961807723590774</v>
+      </c>
+      <c r="P31">
+        <v>0.03922864454341624</v>
+      </c>
+      <c r="Q31">
+        <v>21.80760891659166</v>
+      </c>
+      <c r="R31">
+        <v>196.268480249325</v>
+      </c>
+      <c r="S31">
+        <v>0.006894880823524308</v>
+      </c>
+      <c r="T31">
+        <v>0.009153786680903402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H32">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I32">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J32">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.993584</v>
+      </c>
+      <c r="N32">
+        <v>5.987168</v>
+      </c>
+      <c r="O32">
+        <v>0.05975341067179143</v>
+      </c>
+      <c r="P32">
+        <v>0.05276159080888739</v>
+      </c>
+      <c r="Q32">
+        <v>84.10922187952532</v>
+      </c>
+      <c r="R32">
+        <v>504.6553312771519</v>
+      </c>
+      <c r="S32">
+        <v>0.02659269355190395</v>
+      </c>
+      <c r="T32">
+        <v>0.02353667407025013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H33">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I33">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J33">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.7202763333333334</v>
+      </c>
+      <c r="N33">
+        <v>2.160829</v>
+      </c>
+      <c r="O33">
+        <v>0.01437707027524159</v>
+      </c>
+      <c r="P33">
+        <v>0.01904218747594478</v>
+      </c>
+      <c r="Q33">
+        <v>20.23724135848678</v>
+      </c>
+      <c r="R33">
+        <v>182.135172226381</v>
+      </c>
+      <c r="S33">
+        <v>0.006398379936899167</v>
+      </c>
+      <c r="T33">
+        <v>0.008494621813609458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H34">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I34">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J34">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>9.947454</v>
+      </c>
+      <c r="N34">
+        <v>29.842362</v>
+      </c>
+      <c r="O34">
+        <v>0.1985560799365424</v>
+      </c>
+      <c r="P34">
+        <v>0.2629841842778907</v>
+      </c>
+      <c r="Q34">
+        <v>279.488604837002</v>
+      </c>
+      <c r="R34">
+        <v>2515.397443533018</v>
+      </c>
+      <c r="S34">
+        <v>0.08836551633214941</v>
+      </c>
+      <c r="T34">
+        <v>0.1173158908987384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H35">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I35">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J35">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>33.8274285</v>
+      </c>
+      <c r="N35">
+        <v>67.65485700000001</v>
+      </c>
+      <c r="O35">
+        <v>0.6752121293844308</v>
+      </c>
+      <c r="P35">
+        <v>0.596204730060655</v>
+      </c>
+      <c r="Q35">
+        <v>950.4322208163455</v>
+      </c>
+      <c r="R35">
+        <v>5702.593324898073</v>
+      </c>
+      <c r="S35">
+        <v>0.3004968090921925</v>
+      </c>
+      <c r="T35">
+        <v>0.2659638611240541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>28.07003733333334</v>
-      </c>
-      <c r="H31">
-        <v>84.21011200000001</v>
-      </c>
-      <c r="I31">
-        <v>0.499559396435762</v>
-      </c>
-      <c r="J31">
-        <v>0.5023581450998098</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>4.321411</v>
-      </c>
-      <c r="N31">
-        <v>12.964233</v>
-      </c>
-      <c r="O31">
-        <v>0.08277623461928646</v>
-      </c>
-      <c r="P31">
-        <v>0.1122233241408928</v>
-      </c>
-      <c r="Q31">
-        <v>121.3021681026774</v>
-      </c>
-      <c r="R31">
-        <v>1091.719512924096</v>
-      </c>
-      <c r="S31">
-        <v>0.04135164580563577</v>
-      </c>
-      <c r="T31">
-        <v>0.05637630095235362</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H36">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I36">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J36">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.126386666666667</v>
+      </c>
+      <c r="N36">
+        <v>3.37916</v>
+      </c>
+      <c r="O36">
+        <v>0.02248323249608615</v>
+      </c>
+      <c r="P36">
+        <v>0.02977866283320594</v>
+      </c>
+      <c r="Q36">
+        <v>31.64751884991555</v>
+      </c>
+      <c r="R36">
+        <v>284.82766964924</v>
+      </c>
+      <c r="S36">
+        <v>0.01000595121019395</v>
+      </c>
+      <c r="T36">
+        <v>0.01328410820461801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H37">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I37">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J37">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.483835</v>
+      </c>
+      <c r="N37">
+        <v>4.451505</v>
+      </c>
+      <c r="O37">
+        <v>0.02961807723590774</v>
+      </c>
+      <c r="P37">
+        <v>0.03922864454341624</v>
+      </c>
+      <c r="Q37">
+        <v>41.69056463677166</v>
+      </c>
+      <c r="R37">
+        <v>375.215081730945</v>
+      </c>
+      <c r="S37">
+        <v>0.01318124677195943</v>
+      </c>
+      <c r="T37">
+        <v>0.0174996964018863</v>
       </c>
     </row>
   </sheetData>
